--- a/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
+++ b/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="323">
   <si>
     <t>题号</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/3sum/ (高频老题）</t>
+  </si>
+  <si>
+    <t>6.13</t>
   </si>
   <si>
     <t>反转链表</t>
@@ -1010,12 +1013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1045,12 +1048,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1072,9 +1069,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,22 +1107,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,17 +1151,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1154,9 +1175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,6 +1184,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1179,38 +1207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,7 +1264,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,43 +1300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,19 +1318,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,37 +1390,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,31 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,17 +1488,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,8 +1520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,170 +1556,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1736,34 +1733,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1772,19 +1769,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,49 +1793,49 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1847,31 +1844,31 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2211,7 +2208,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2430,7 +2427,7 @@
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>13</v>
@@ -2458,10 +2455,10 @@
         <v>206</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="31" t="s">
@@ -2493,10 +2490,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="31" t="s">
@@ -2528,14 +2525,14 @@
         <v>141</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>13</v>
@@ -2563,14 +2560,14 @@
         <v>142</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>13</v>
@@ -2585,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2600,10 +2597,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="31" t="s">
@@ -2635,10 +2632,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>13</v>
@@ -2672,16 +2669,16 @@
         <v>155</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>13</v>
@@ -2709,10 +2706,10 @@
         <v>84</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>13</v>
@@ -2746,10 +2743,10 @@
         <v>239</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>13</v>
@@ -2818,7 +2815,7 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:17">
       <c r="A20" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2861,10 +2858,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -2886,10 +2883,10 @@
         <v>189</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="s">
@@ -2921,10 +2918,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="s">
@@ -2956,10 +2953,10 @@
         <v>88</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43" t="s">
@@ -2991,10 +2988,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43" t="s">
@@ -3026,10 +3023,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43" t="s">
@@ -3061,10 +3058,10 @@
         <v>641</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>13</v>
@@ -3098,10 +3095,10 @@
         <v>42</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>13</v>
@@ -3573,11 +3570,11 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3610,10 +3607,10 @@
         <v>242</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -3639,10 +3636,10 @@
         <v>49</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -3666,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -3693,10 +3690,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -3720,10 +3717,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -3747,10 +3744,10 @@
         <v>590</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -3774,10 +3771,10 @@
         <v>589</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -3801,10 +3798,10 @@
         <v>429</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -3825,13 +3822,13 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:9">
       <c r="A13" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -3845,10 +3842,10 @@
         <v>239</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>13</v>
@@ -3886,7 +3883,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:17">
       <c r="A17" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3926,13 +3923,13 @@
     </row>
     <row r="19" ht="22.5" spans="1:17">
       <c r="A19" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -3956,10 +3953,10 @@
         <v>347</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -4724,11 +4721,11 @@
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4834,10 +4831,10 @@
         <v>226</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -4859,10 +4856,10 @@
         <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -4884,10 +4881,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4909,10 +4906,10 @@
         <v>111</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4934,10 +4931,10 @@
         <v>297</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4959,10 +4956,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="16">
@@ -4973,7 +4970,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -4988,10 +4985,10 @@
         <v>78</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -5013,10 +5010,10 @@
         <v>169</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="s">
@@ -5048,10 +5045,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>13</v>
@@ -5085,10 +5082,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>13</v>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:17">
       <c r="A19" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5200,10 +5197,10 @@
         <v>236</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -5225,10 +5222,10 @@
         <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -5250,10 +5247,10 @@
         <v>77</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -5275,10 +5272,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -5300,10 +5297,10 @@
         <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -5647,11 +5644,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5713,14 +5710,14 @@
         <v>102</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -5729,7 +5726,7 @@
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -5744,10 +5741,10 @@
         <v>433</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>13</v>
@@ -5781,10 +5778,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>13</v>
@@ -5805,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -5820,10 +5817,10 @@
         <v>515</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>13</v>
@@ -5857,10 +5854,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43" t="s">
@@ -5892,10 +5889,10 @@
         <v>367</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43" t="s">
@@ -5962,7 +5959,7 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:17">
       <c r="A13" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6005,10 +6002,10 @@
         <v>860</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>13</v>
@@ -6042,10 +6039,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>13</v>
@@ -6079,10 +6076,10 @@
         <v>455</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>13</v>
@@ -6116,10 +6113,10 @@
         <v>874</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>13</v>
@@ -6153,10 +6150,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>13</v>
@@ -6177,7 +6174,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -6192,10 +6189,10 @@
         <v>200</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>13</v>
@@ -6229,10 +6226,10 @@
         <v>529</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>13</v>
@@ -6266,10 +6263,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>13</v>
@@ -6303,10 +6300,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="s">
@@ -6338,10 +6335,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="s">
@@ -6373,10 +6370,10 @@
         <v>153</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43" t="s">
@@ -6408,10 +6405,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>13</v>
@@ -6445,10 +6442,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>13</v>
@@ -9347,11 +9344,11 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:18">
       <c r="A2" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -9416,17 +9413,17 @@
         <v>62</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="30">
         <v>11.5</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -9448,14 +9445,14 @@
         <v>63</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -9476,14 +9473,14 @@
         <v>1143</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -9524,16 +9521,16 @@
         <v>120</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>170</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>169</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>13</v>
@@ -9562,10 +9559,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>13</v>
@@ -9600,10 +9597,10 @@
         <v>152</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -9626,10 +9623,10 @@
         <v>322</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -9652,10 +9649,10 @@
         <v>198</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>13</v>
@@ -9690,10 +9687,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>13</v>
@@ -9728,10 +9725,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>13</v>
@@ -9766,10 +9763,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>13</v>
@@ -9804,10 +9801,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>13</v>
@@ -9842,10 +9839,10 @@
         <v>309</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>13</v>
@@ -9880,10 +9877,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>13</v>
@@ -9918,10 +9915,10 @@
         <v>714</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>13</v>
@@ -9953,7 +9950,7 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:18">
       <c r="A21" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -9978,10 +9975,10 @@
         <v>279</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -10004,10 +10001,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -10030,10 +10027,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -10056,10 +10053,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -10082,10 +10079,10 @@
         <v>980</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -10108,10 +10105,10 @@
         <v>518</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -10171,7 +10168,7 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:18">
       <c r="A30" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -10216,10 +10213,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>13</v>
@@ -10254,10 +10251,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>13</v>
@@ -10292,10 +10289,10 @@
         <v>221</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>13</v>
@@ -10330,10 +10327,10 @@
         <v>621</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>13</v>
@@ -10368,10 +10365,10 @@
         <v>647</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>13</v>
@@ -10406,10 +10403,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>13</v>
@@ -10444,10 +10441,10 @@
         <v>363</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>13</v>
@@ -10482,10 +10479,10 @@
         <v>403</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>13</v>
@@ -10520,10 +10517,10 @@
         <v>410</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>13</v>
@@ -10558,10 +10555,10 @@
         <v>552</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>13</v>
@@ -10596,10 +10593,10 @@
         <v>76</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>13</v>
@@ -10634,10 +10631,10 @@
         <v>312</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>13</v>
@@ -13916,11 +13913,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -13985,10 +13982,10 @@
         <v>208</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="20">
@@ -14017,10 +14014,10 @@
         <v>212</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -14043,10 +14040,10 @@
         <v>547</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -14069,10 +14066,10 @@
         <v>200</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -14095,10 +14092,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -14124,7 +14121,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -14147,10 +14144,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -14173,10 +14170,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -14199,10 +14196,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -14225,10 +14222,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -14251,10 +14248,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -14277,10 +14274,10 @@
         <v>433</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -14303,10 +14300,10 @@
         <v>1091</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -14329,10 +14326,10 @@
         <v>773</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -18080,11 +18077,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -18149,10 +18146,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="16">
@@ -18179,10 +18176,10 @@
         <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -18205,10 +18202,10 @@
         <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -18231,10 +18228,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -18257,10 +18254,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -18283,10 +18280,10 @@
         <v>338</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -18309,10 +18306,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -18372,7 +18369,7 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -18417,10 +18414,10 @@
         <v>1122</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -18443,10 +18440,10 @@
         <v>242</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -18469,10 +18466,10 @@
         <v>1244</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -18495,10 +18492,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -18521,10 +18518,10 @@
         <v>493</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -22231,11 +22228,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -22303,7 +22300,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
@@ -22326,10 +22323,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -22352,10 +22349,10 @@
         <v>198</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -22378,10 +22375,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -22404,10 +22401,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -22430,10 +22427,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -22456,10 +22453,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -22482,10 +22479,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -22508,10 +22505,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -22534,10 +22531,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -22560,10 +22557,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -22586,10 +22583,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -22612,10 +22609,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -22638,10 +22635,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -22664,10 +22661,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -22690,10 +22687,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -22716,10 +22713,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -22742,10 +22739,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -22768,10 +22765,10 @@
         <v>242</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -22794,10 +22791,10 @@
         <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -22820,10 +22817,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -22846,10 +22843,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -22872,10 +22869,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -22898,10 +22895,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -22924,10 +22921,10 @@
         <v>1143</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -22950,10 +22947,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -22976,10 +22973,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -23002,10 +22999,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -23065,7 +23062,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -23110,10 +23107,10 @@
         <v>205</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -23136,10 +23133,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -23162,10 +23159,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -23188,10 +23185,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -23214,10 +23211,10 @@
         <v>818</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>

--- a/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
+++ b/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="323">
   <si>
     <t>题号</t>
   </si>
@@ -1013,10 +1013,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1065,36 +1065,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1107,9 +1077,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1117,6 +1087,35 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,8 +1135,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,6 +1159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1167,16 +1174,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,24 +1206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,7 +1264,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,73 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,61 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,31 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,11 +1497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1526,17 +1532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,17 +1562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,148 +1575,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2207,8 +2207,8 @@
   <sheetPr/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>13</v>
@@ -2959,8 +2959,8 @@
         <v>50</v>
       </c>
       <c r="D25" s="43"/>
-      <c r="E25" s="43" t="s">
-        <v>13</v>
+      <c r="E25" s="43">
+        <v>6.13</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>13</v>

--- a/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
+++ b/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="324">
   <si>
     <t>题号</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>6.14</t>
   </si>
   <si>
     <t>两两交换链表中的节点</t>
@@ -1013,9 +1016,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1062,22 +1065,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1091,7 +1081,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,17 +1131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,7 +1156,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,38 +1179,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,14 +1202,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,7 +1267,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,31 +1357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,67 +1423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,55 +1435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,6 +1476,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1484,15 +1496,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,35 +1517,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,153 +1547,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2208,7 +2211,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2462,7 +2465,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>13</v>
@@ -2490,10 +2493,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="31" t="s">
@@ -2525,14 +2528,14 @@
         <v>141</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>13</v>
@@ -2560,14 +2563,14 @@
         <v>142</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>13</v>
@@ -2582,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2597,14 +2600,14 @@
         <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>13</v>
@@ -2632,10 +2635,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>13</v>
@@ -2669,10 +2672,10 @@
         <v>155</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>13</v>
@@ -2706,10 +2709,10 @@
         <v>84</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>13</v>
@@ -2743,10 +2746,10 @@
         <v>239</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>13</v>
@@ -2815,7 +2818,7 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:17">
       <c r="A20" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2858,10 +2861,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -2883,10 +2886,10 @@
         <v>189</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="s">
@@ -2918,10 +2921,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="s">
@@ -2953,10 +2956,10 @@
         <v>88</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43">
@@ -2988,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43" t="s">
@@ -3023,10 +3026,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43" t="s">
@@ -3058,10 +3061,10 @@
         <v>641</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>13</v>
@@ -3095,10 +3098,10 @@
         <v>42</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>13</v>
@@ -3570,11 +3573,11 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3607,10 +3610,10 @@
         <v>242</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -3636,10 +3639,10 @@
         <v>49</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -3663,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -3690,10 +3693,10 @@
         <v>94</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -3717,10 +3720,10 @@
         <v>144</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -3744,10 +3747,10 @@
         <v>590</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -3771,10 +3774,10 @@
         <v>589</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -3798,10 +3801,10 @@
         <v>429</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -3822,13 +3825,13 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:9">
       <c r="A13" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -3842,10 +3845,10 @@
         <v>239</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>13</v>
@@ -3883,7 +3886,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:17">
       <c r="A17" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3923,13 +3926,13 @@
     </row>
     <row r="19" ht="22.5" spans="1:17">
       <c r="A19" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -3953,10 +3956,10 @@
         <v>347</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -4721,11 +4724,11 @@
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4831,10 +4834,10 @@
         <v>226</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -4856,10 +4859,10 @@
         <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -4881,10 +4884,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4906,10 +4909,10 @@
         <v>111</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4931,10 +4934,10 @@
         <v>297</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4956,10 +4959,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="16">
@@ -4970,7 +4973,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -4985,10 +4988,10 @@
         <v>78</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -5010,10 +5013,10 @@
         <v>169</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="s">
@@ -5045,10 +5048,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>13</v>
@@ -5082,10 +5085,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>13</v>
@@ -5154,7 +5157,7 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:17">
       <c r="A19" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5197,10 +5200,10 @@
         <v>236</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -5222,10 +5225,10 @@
         <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -5247,10 +5250,10 @@
         <v>77</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -5272,10 +5275,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -5297,10 +5300,10 @@
         <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -5644,11 +5647,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5710,14 +5713,14 @@
         <v>102</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -5726,7 +5729,7 @@
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -5741,10 +5744,10 @@
         <v>433</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>13</v>
@@ -5778,10 +5781,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>13</v>
@@ -5802,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -5817,10 +5820,10 @@
         <v>515</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>13</v>
@@ -5854,10 +5857,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43" t="s">
@@ -5889,10 +5892,10 @@
         <v>367</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43" t="s">
@@ -5959,7 +5962,7 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:17">
       <c r="A13" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6002,10 +6005,10 @@
         <v>860</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>13</v>
@@ -6039,10 +6042,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>13</v>
@@ -6076,10 +6079,10 @@
         <v>455</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>13</v>
@@ -6113,10 +6116,10 @@
         <v>874</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>13</v>
@@ -6150,10 +6153,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>13</v>
@@ -6174,7 +6177,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -6189,10 +6192,10 @@
         <v>200</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>13</v>
@@ -6226,10 +6229,10 @@
         <v>529</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>13</v>
@@ -6263,10 +6266,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>13</v>
@@ -6300,10 +6303,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="s">
@@ -6335,10 +6338,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="s">
@@ -6370,10 +6373,10 @@
         <v>153</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43" t="s">
@@ -6405,10 +6408,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>13</v>
@@ -6442,10 +6445,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>13</v>
@@ -9344,11 +9347,11 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:18">
       <c r="A2" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -9413,17 +9416,17 @@
         <v>62</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="30">
         <v>11.5</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -9445,14 +9448,14 @@
         <v>63</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -9473,14 +9476,14 @@
         <v>1143</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -9521,16 +9524,16 @@
         <v>120</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>170</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>13</v>
@@ -9559,10 +9562,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>13</v>
@@ -9597,10 +9600,10 @@
         <v>152</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -9623,10 +9626,10 @@
         <v>322</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -9649,10 +9652,10 @@
         <v>198</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>13</v>
@@ -9687,10 +9690,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>13</v>
@@ -9725,10 +9728,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>13</v>
@@ -9763,10 +9766,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>13</v>
@@ -9801,10 +9804,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>13</v>
@@ -9839,10 +9842,10 @@
         <v>309</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>13</v>
@@ -9877,10 +9880,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>13</v>
@@ -9915,10 +9918,10 @@
         <v>714</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>13</v>
@@ -9950,7 +9953,7 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:18">
       <c r="A21" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -9975,10 +9978,10 @@
         <v>279</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -10001,10 +10004,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -10027,10 +10030,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -10053,10 +10056,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -10079,10 +10082,10 @@
         <v>980</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -10105,10 +10108,10 @@
         <v>518</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -10168,7 +10171,7 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:18">
       <c r="A30" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -10213,10 +10216,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>13</v>
@@ -10251,10 +10254,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>13</v>
@@ -10289,10 +10292,10 @@
         <v>221</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>13</v>
@@ -10327,10 +10330,10 @@
         <v>621</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>13</v>
@@ -10365,10 +10368,10 @@
         <v>647</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>13</v>
@@ -10403,10 +10406,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>13</v>
@@ -10441,10 +10444,10 @@
         <v>363</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>13</v>
@@ -10479,10 +10482,10 @@
         <v>403</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>13</v>
@@ -10517,10 +10520,10 @@
         <v>410</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>13</v>
@@ -10555,10 +10558,10 @@
         <v>552</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>13</v>
@@ -10593,10 +10596,10 @@
         <v>76</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>13</v>
@@ -10631,10 +10634,10 @@
         <v>312</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>13</v>
@@ -13913,11 +13916,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -13982,10 +13985,10 @@
         <v>208</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="20">
@@ -14014,10 +14017,10 @@
         <v>212</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -14040,10 +14043,10 @@
         <v>547</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -14066,10 +14069,10 @@
         <v>200</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -14092,10 +14095,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -14121,7 +14124,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -14144,10 +14147,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -14170,10 +14173,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -14196,10 +14199,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -14222,10 +14225,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -14248,10 +14251,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -14274,10 +14277,10 @@
         <v>433</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -14300,10 +14303,10 @@
         <v>1091</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -14326,10 +14329,10 @@
         <v>773</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -18077,11 +18080,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -18146,10 +18149,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="16">
@@ -18176,10 +18179,10 @@
         <v>231</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -18202,10 +18205,10 @@
         <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -18228,10 +18231,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -18254,10 +18257,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -18280,10 +18283,10 @@
         <v>338</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -18306,10 +18309,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -18369,7 +18372,7 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -18414,10 +18417,10 @@
         <v>1122</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -18440,10 +18443,10 @@
         <v>242</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -18466,10 +18469,10 @@
         <v>1244</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -18492,10 +18495,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -18518,10 +18521,10 @@
         <v>493</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -22228,11 +22231,11 @@
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -22300,7 +22303,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
@@ -22323,10 +22326,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -22349,10 +22352,10 @@
         <v>198</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -22375,10 +22378,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -22401,10 +22404,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -22427,10 +22430,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -22453,10 +22456,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -22479,10 +22482,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -22505,10 +22508,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -22531,10 +22534,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -22557,10 +22560,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -22583,10 +22586,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -22609,10 +22612,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -22635,10 +22638,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -22661,10 +22664,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -22687,10 +22690,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -22713,10 +22716,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -22739,10 +22742,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -22765,10 +22768,10 @@
         <v>242</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -22791,10 +22794,10 @@
         <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -22817,10 +22820,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -22843,10 +22846,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -22869,10 +22872,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -22895,10 +22898,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -22921,10 +22924,10 @@
         <v>1143</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -22947,10 +22950,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -22973,10 +22976,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -22999,10 +23002,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -23062,7 +23065,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -23107,10 +23110,10 @@
         <v>205</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -23133,10 +23136,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -23159,10 +23162,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -23185,10 +23188,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -23211,10 +23214,10 @@
         <v>818</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>

--- a/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
+++ b/src/leetcode/editor/cn/doc/极客经典算法题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week01" sheetId="1" r:id="rId1"/>
@@ -1016,10 +1016,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1065,23 +1065,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,22 +1087,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,8 +1101,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1132,7 +1117,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,8 +1139,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1170,10 +1162,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,8 +1186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,17 +1202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,6 +1267,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1279,19 +1321,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,7 +1381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,109 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,11 +1476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,6 +1502,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,7 +1534,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,30 +1556,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1573,153 +1564,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2210,8 +2210,8 @@
   <sheetPr/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3519,8 +3519,8 @@
   <sheetPr/>
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3616,7 +3616,9 @@
         <v>63</v>
       </c>
       <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="E5" s="43">
+        <v>6.15</v>
+      </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43" t="s">
@@ -3645,7 +3647,9 @@
         <v>65</v>
       </c>
       <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="E6" s="43">
+        <v>6.15</v>
+      </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="43" t="s">
